--- a/biology/Médecine/Clinique_Saint-André_de_Reims/Clinique_Saint-André_de_Reims.xlsx
+++ b/biology/Médecine/Clinique_Saint-André_de_Reims/Clinique_Saint-André_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Andr%C3%A9_de_Reims</t>
+          <t>Clinique_Saint-André_de_Reims</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Polyclinique Saint-André, créée en 1968, était un établissement pluridisciplinaire implanté à Reims qui disposait de 211 places pour accueillir les patients nécessitant une hospitalisation. Elle ferme en mai 2018 dans le cadre de l’ouverture de nouvelle polyclinique Reims-Bezannes[1].
+La Polyclinique Saint-André, créée en 1968, était un établissement pluridisciplinaire implanté à Reims qui disposait de 211 places pour accueillir les patients nécessitant une hospitalisation. Elle ferme en mai 2018 dans le cadre de l’ouverture de nouvelle polyclinique Reims-Bezannes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Andr%C3%A9_de_Reims</t>
+          <t>Clinique_Saint-André_de_Reims</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Polyclinique Saint-André était située 18 rue de l’écu et 3 Boulevard de la Paix, à Reims, dans la Marne.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Andr%C3%A9_de_Reims</t>
+          <t>Clinique_Saint-André_de_Reims</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Polyclinique Saint-André, créée en 1968, était un établissement pluridisciplinaire qui regroupait près de 30 spécialités et plus de 110 praticiens. A sa création, la polyclinique se lance dans des secteurs de pointe et a ouvert 10 lits en chirurgie de la main pour notamment les accidents de travail et cinq lits en chirurgie maxillo-faciale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Polyclinique Saint-André, créée en 1968, était un établissement pluridisciplinaire qui regroupait près de 30 spécialités et plus de 110 praticiens. A sa création, la polyclinique se lance dans des secteurs de pointe et a ouvert 10 lits en chirurgie de la main pour notamment les accidents de travail et cinq lits en chirurgie maxillo-faciale.
 En 2000, la polyclinique des Bleuets a rejoint le groupe Saint-André.
 En 2002, construction du bâtiment de la maternité.
 En 2007, la Polyclinique Saint-André et la Polyclinique Les Bleuets de Reims rejoignent le Groupe Courlancy.
-La fermeture et la vente du site de la Polyclinique Saint-André sont liées à l’ouverture de la nouvelle polyclinique Reims-Bezannes[3].
+La fermeture et la vente du site de la Polyclinique Saint-André sont liées à l’ouverture de la nouvelle polyclinique Reims-Bezannes.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Andr%C3%A9_de_Reims</t>
+          <t>Clinique_Saint-André_de_Reims</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Description de la clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A : Ancien siège de l’administration de la polyclinique ancien Hôtel Collet-Delarsille.
 C : partie logistique
